--- a/job_market_data/ssfa_data_jmp.xlsx
+++ b/job_market_data/ssfa_data_jmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/GitHub/ST-Apportionment/job_market_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A65DE84-B423-0D42-AD7D-E88D427A679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82C3FB4-299F-DF44-BFF9-F8C5946FB26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="28780" windowHeight="17040" xr2:uid="{25728AAB-F926-F746-9F26-71BCF72B303B}"/>
   </bookViews>
@@ -801,10 +801,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,173 +829,200 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P2" t="s">
-        <v>105</v>
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5">
+        <v>44229</v>
+      </c>
+      <c r="F2" s="5">
+        <v>44231</v>
+      </c>
+      <c r="G2" s="5">
+        <v>44197</v>
+      </c>
+      <c r="H2">
+        <v>2021</v>
+      </c>
+      <c r="I2">
+        <v>2021</v>
+      </c>
+      <c r="J2">
+        <v>2021</v>
       </c>
       <c r="Q2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5">
-        <v>44229</v>
-      </c>
-      <c r="F3" s="5">
-        <v>44231</v>
-      </c>
-      <c r="G3" s="5">
-        <v>44197</v>
-      </c>
-      <c r="H3">
-        <v>2021</v>
-      </c>
-      <c r="I3">
-        <v>2021</v>
-      </c>
-      <c r="J3">
-        <v>2021</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5">
+        <v>37670</v>
+      </c>
+      <c r="F4" s="5">
+        <v>38492</v>
+      </c>
+      <c r="G4" s="5">
+        <v>39082</v>
+      </c>
+      <c r="H4">
+        <v>2003</v>
+      </c>
+      <c r="I4">
+        <v>2005</v>
+      </c>
+      <c r="J4">
+        <v>2007</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5">
-        <v>37670</v>
-      </c>
       <c r="F5" s="5">
-        <v>38492</v>
+        <v>43564</v>
       </c>
       <c r="G5" s="5">
-        <v>39082</v>
+        <v>44197</v>
       </c>
       <c r="H5">
-        <v>2003</v>
+        <v>2019</v>
       </c>
       <c r="I5">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="J5">
-        <v>2007</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" t="s">
-        <v>28</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="5">
-        <v>43564</v>
+        <v>39864</v>
       </c>
       <c r="G6" s="5">
-        <v>44197</v>
-      </c>
-      <c r="H6">
-        <v>2019</v>
+        <v>40544</v>
       </c>
       <c r="I6">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="J6">
-        <v>2021</v>
+        <v>2011</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -1003,202 +1030,208 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F7" s="5">
-        <v>39864</v>
+        <v>39588</v>
       </c>
       <c r="G7" s="5">
-        <v>40544</v>
+        <v>39814</v>
+      </c>
+      <c r="H7">
+        <v>2008</v>
       </c>
       <c r="I7">
+        <v>2008</v>
+      </c>
+      <c r="J7">
         <v>2009</v>
       </c>
-      <c r="J7">
-        <v>2011</v>
-      </c>
-      <c r="K7" t="s">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5">
+        <v>42523</v>
+      </c>
+      <c r="G8" s="5">
+        <v>42370</v>
+      </c>
+      <c r="I8">
+        <v>2016</v>
+      </c>
+      <c r="J8">
+        <v>2016</v>
+      </c>
+      <c r="Q8" t="s">
         <v>23</v>
       </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="5">
-        <v>39588</v>
-      </c>
-      <c r="G8" s="5">
-        <v>39814</v>
-      </c>
-      <c r="H8">
-        <v>2008</v>
-      </c>
-      <c r="I8">
-        <v>2008</v>
-      </c>
-      <c r="J8">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
+      <c r="E9" s="5">
+        <v>42377</v>
       </c>
       <c r="F9" s="5">
-        <v>42523</v>
+        <v>42396</v>
       </c>
       <c r="G9" s="5">
-        <v>42370</v>
+        <v>42736</v>
+      </c>
+      <c r="H9">
+        <v>2016</v>
       </c>
       <c r="I9">
         <v>2016</v>
       </c>
       <c r="J9">
-        <v>2016</v>
-      </c>
-      <c r="Q9" t="s">
+        <v>2017</v>
+      </c>
+      <c r="M9" t="s">
         <v>23</v>
+      </c>
+      <c r="N9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5">
-        <v>42377</v>
-      </c>
-      <c r="F10" s="5">
-        <v>42396</v>
-      </c>
-      <c r="G10" s="5">
-        <v>42736</v>
-      </c>
-      <c r="H10">
-        <v>2016</v>
-      </c>
-      <c r="I10">
-        <v>2016</v>
-      </c>
-      <c r="J10">
-        <v>2017</v>
-      </c>
-      <c r="M10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" t="s">
-        <v>38</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5">
+        <v>38391</v>
+      </c>
+      <c r="F11" s="5">
+        <v>38448</v>
+      </c>
+      <c r="G11" s="5">
+        <v>38718</v>
+      </c>
+      <c r="H11">
+        <v>2005</v>
+      </c>
+      <c r="I11">
+        <v>2005</v>
+      </c>
+      <c r="J11">
+        <v>2006</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="5">
-        <v>38391</v>
-      </c>
-      <c r="F12" s="5">
-        <v>38448</v>
-      </c>
-      <c r="G12" s="5">
-        <v>38718</v>
-      </c>
-      <c r="H12">
-        <v>2005</v>
-      </c>
-      <c r="I12">
-        <v>2005</v>
-      </c>
-      <c r="J12">
-        <v>2006</v>
+        <v>41</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5">
+        <v>44600</v>
+      </c>
+      <c r="F13" s="5">
+        <v>44637</v>
+      </c>
+      <c r="G13" s="5">
+        <v>44562</v>
+      </c>
+      <c r="H13">
+        <v>2022</v>
+      </c>
+      <c r="I13">
+        <v>2022</v>
+      </c>
+      <c r="J13">
+        <v>2022</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="5">
-        <v>44600</v>
+        <v>35944</v>
       </c>
       <c r="F14" s="5">
-        <v>44637</v>
+        <v>35985</v>
       </c>
       <c r="G14" s="5">
-        <v>44562</v>
+        <v>36161</v>
       </c>
       <c r="H14">
-        <v>2022</v>
+        <v>1998</v>
       </c>
       <c r="I14">
-        <v>2022</v>
+        <v>1998</v>
       </c>
       <c r="J14">
-        <v>2022</v>
-      </c>
-      <c r="Q14" t="s">
+        <v>1999</v>
+      </c>
+      <c r="M14" t="s">
         <v>23</v>
+      </c>
+      <c r="N14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -1206,155 +1239,149 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="5">
-        <v>35944</v>
+        <v>38743</v>
       </c>
       <c r="F15" s="5">
-        <v>35985</v>
+        <v>38802</v>
       </c>
       <c r="G15" s="5">
-        <v>36161</v>
+        <v>39083</v>
       </c>
       <c r="H15">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="I15">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="J15">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="M15" t="s">
         <v>23</v>
       </c>
       <c r="N15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="5">
-        <v>38743</v>
-      </c>
-      <c r="F16" s="5">
-        <v>38802</v>
-      </c>
-      <c r="G16" s="5">
-        <v>39083</v>
-      </c>
-      <c r="H16">
-        <v>2006</v>
-      </c>
-      <c r="I16">
-        <v>2006</v>
+        <v>48</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="J16">
-        <v>2007</v>
-      </c>
-      <c r="M16" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" t="s">
-        <v>46</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17">
-        <v>1978</v>
+        <v>50</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>20</v>
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5">
+        <v>41674</v>
+      </c>
+      <c r="F18" s="5">
+        <v>43204</v>
+      </c>
+      <c r="G18" s="5">
+        <v>43101</v>
+      </c>
+      <c r="H18">
+        <v>2014</v>
+      </c>
+      <c r="I18">
+        <v>2018</v>
+      </c>
+      <c r="J18">
+        <v>2018</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="5">
+        <v>42549</v>
+      </c>
+      <c r="G19" s="5">
+        <v>42370</v>
+      </c>
+      <c r="I19">
+        <v>2016</v>
+      </c>
+      <c r="J19">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="5">
-        <v>41674</v>
-      </c>
-      <c r="F19" s="5">
-        <v>43204</v>
-      </c>
-      <c r="G19" s="5">
-        <v>43101</v>
-      </c>
-      <c r="H19">
-        <v>2014</v>
-      </c>
-      <c r="I19">
-        <v>2018</v>
-      </c>
-      <c r="J19">
-        <v>2018</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="5">
+        <v>39264</v>
+      </c>
+      <c r="G20" s="5">
+        <v>39083</v>
+      </c>
+      <c r="H20">
+        <v>2007</v>
+      </c>
+      <c r="I20">
+        <v>2007</v>
+      </c>
+      <c r="J20">
+        <v>2007</v>
+      </c>
+      <c r="Q20" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="5">
-        <v>42549</v>
-      </c>
-      <c r="G20" s="5">
-        <v>42370</v>
-      </c>
-      <c r="I20">
-        <v>2016</v>
-      </c>
-      <c r="J20">
-        <v>2016</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -1362,25 +1389,25 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="5">
-        <v>39264</v>
+        <v>43214</v>
       </c>
       <c r="G21" s="5">
-        <v>39083</v>
+        <v>43101</v>
       </c>
       <c r="H21">
-        <v>2007</v>
+        <v>2018</v>
       </c>
       <c r="I21">
-        <v>2007</v>
+        <v>2018</v>
       </c>
       <c r="J21">
-        <v>2007</v>
+        <v>2018</v>
       </c>
       <c r="Q21" t="s">
         <v>23</v>
@@ -1388,54 +1415,48 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
       </c>
       <c r="F22" s="5">
-        <v>43214</v>
+        <v>45203</v>
       </c>
       <c r="G22" s="5">
-        <v>43101</v>
-      </c>
-      <c r="H22">
-        <v>2018</v>
+        <v>45658</v>
       </c>
       <c r="I22">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="J22">
-        <v>2018</v>
-      </c>
-      <c r="Q22" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23">
+        <v>1991</v>
+      </c>
+      <c r="M23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="5">
-        <v>45203</v>
-      </c>
-      <c r="G23" s="5">
-        <v>45658</v>
-      </c>
-      <c r="I23">
-        <v>2023</v>
-      </c>
-      <c r="J23">
-        <v>2025</v>
+      <c r="N23" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -1446,654 +1467,631 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J24">
-        <v>1991</v>
+        <v>2007</v>
       </c>
       <c r="M24" t="s">
         <v>23</v>
       </c>
       <c r="N24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J25">
-        <v>2007</v>
-      </c>
-      <c r="M25" t="s">
-        <v>23</v>
-      </c>
-      <c r="N25" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="F26" s="5">
+        <v>43252</v>
+      </c>
+      <c r="G26" s="5">
+        <v>43831</v>
+      </c>
+      <c r="I26">
+        <v>2018</v>
+      </c>
+      <c r="J26">
+        <v>2020</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F27" s="5">
-        <v>43252</v>
+        <v>44998</v>
       </c>
       <c r="G27" s="5">
-        <v>43831</v>
+        <v>45658</v>
       </c>
       <c r="I27">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="J27">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="5">
+        <v>31883</v>
+      </c>
+      <c r="G28" s="5">
+        <v>32143</v>
+      </c>
+      <c r="I28">
+        <v>1987</v>
+      </c>
+      <c r="J28">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>14</v>
       </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="5">
-        <v>44998</v>
-      </c>
-      <c r="G28" s="5">
-        <v>45658</v>
-      </c>
-      <c r="I28">
-        <v>2023</v>
-      </c>
-      <c r="J28">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="5">
-        <v>31883</v>
-      </c>
-      <c r="G29" s="5">
-        <v>32143</v>
-      </c>
-      <c r="I29">
-        <v>1987</v>
-      </c>
-      <c r="J29">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="5">
+        <v>43734</v>
+      </c>
+      <c r="F30" s="5">
+        <v>44166</v>
+      </c>
+      <c r="G30" s="5">
+        <v>44562</v>
+      </c>
+      <c r="H30">
+        <v>2019</v>
+      </c>
+      <c r="I30">
+        <v>2020</v>
+      </c>
+      <c r="J30">
+        <v>2022</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="5">
-        <v>43734</v>
+        <v>40596</v>
       </c>
       <c r="F31" s="5">
-        <v>44166</v>
+        <v>40661</v>
       </c>
       <c r="G31" s="5">
-        <v>44562</v>
+        <v>40909</v>
       </c>
       <c r="H31">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="I31">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="J31">
-        <v>2022</v>
+        <v>2012</v>
+      </c>
+      <c r="M31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="5">
+        <v>41660</v>
+      </c>
+      <c r="F33" s="5">
+        <v>41729</v>
+      </c>
+      <c r="G33" s="5">
+        <v>42005</v>
+      </c>
+      <c r="H33">
+        <v>2014</v>
+      </c>
+      <c r="I33">
+        <v>2014</v>
+      </c>
+      <c r="J33">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
         <v>21</v>
       </c>
-      <c r="C32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="5">
-        <v>40596</v>
-      </c>
-      <c r="F32" s="5">
-        <v>40661</v>
-      </c>
-      <c r="G32" s="5">
-        <v>40909</v>
-      </c>
-      <c r="H32">
-        <v>2011</v>
-      </c>
-      <c r="I32">
-        <v>2011</v>
-      </c>
-      <c r="J32">
-        <v>2012</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="5">
+        <v>42265</v>
+      </c>
+      <c r="G34" s="5">
+        <v>42370</v>
+      </c>
+      <c r="I34">
+        <v>2015</v>
+      </c>
+      <c r="J34">
+        <v>2016</v>
+      </c>
+      <c r="M34" t="s">
         <v>23</v>
       </c>
-      <c r="N32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="5">
-        <v>41660</v>
-      </c>
-      <c r="F34" s="5">
-        <v>41729</v>
-      </c>
-      <c r="G34" s="5">
-        <v>42005</v>
-      </c>
-      <c r="H34">
-        <v>2014</v>
-      </c>
-      <c r="I34">
-        <v>2014</v>
-      </c>
-      <c r="J34">
-        <v>2015</v>
+      <c r="N34" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>74</v>
-      </c>
       <c r="B35" t="s">
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>16</v>
+        <v>78</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="5">
+        <v>42023</v>
       </c>
       <c r="F35" s="5">
-        <v>42265</v>
+        <v>42114</v>
       </c>
       <c r="G35" s="5">
         <v>42370</v>
       </c>
+      <c r="H35">
+        <v>2015</v>
+      </c>
       <c r="I35">
         <v>2015</v>
       </c>
       <c r="J35">
         <v>2016</v>
       </c>
-      <c r="M35" t="s">
+      <c r="K35" t="s">
         <v>23</v>
       </c>
-      <c r="N35" t="s">
-        <v>77</v>
+      <c r="L35" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="5">
-        <v>42023</v>
-      </c>
-      <c r="F36" s="5">
-        <v>42114</v>
-      </c>
-      <c r="G36" s="5">
-        <v>42370</v>
-      </c>
-      <c r="H36">
-        <v>2015</v>
-      </c>
-      <c r="I36">
-        <v>2015</v>
-      </c>
-      <c r="J36">
-        <v>2016</v>
-      </c>
-      <c r="K36" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>49</v>
+        <v>81</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>20</v>
+        <v>82</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="5">
+        <v>37050</v>
+      </c>
+      <c r="F38" s="5">
+        <v>37862</v>
+      </c>
+      <c r="G38" s="5">
+        <v>37987</v>
+      </c>
+      <c r="H38">
+        <v>2001</v>
+      </c>
+      <c r="I38">
+        <v>2003</v>
+      </c>
+      <c r="J38">
+        <v>2004</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="5">
+        <v>39083</v>
+      </c>
+      <c r="I39">
+        <v>2006</v>
+      </c>
+      <c r="J39">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>21</v>
       </c>
-      <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="5">
-        <v>37050</v>
-      </c>
-      <c r="F39" s="5">
-        <v>37862</v>
-      </c>
-      <c r="G39" s="5">
-        <v>37987</v>
-      </c>
-      <c r="H39">
-        <v>2001</v>
-      </c>
-      <c r="I39">
-        <v>2003</v>
-      </c>
-      <c r="J39">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" t="s">
-        <v>35</v>
-      </c>
       <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>16</v>
+        <v>84</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="5">
+        <v>41766</v>
+      </c>
+      <c r="F40" s="5">
+        <v>41809</v>
       </c>
       <c r="G40" s="5">
-        <v>39083</v>
+        <v>42005</v>
+      </c>
+      <c r="H40">
+        <v>2014</v>
       </c>
       <c r="I40">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="J40">
-        <v>2007</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
       <c r="B41" t="s">
         <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E41" s="5">
-        <v>41766</v>
+        <v>38798</v>
       </c>
       <c r="F41" s="5">
-        <v>41809</v>
+        <v>38882</v>
       </c>
       <c r="G41" s="5">
-        <v>42005</v>
+        <v>39083</v>
       </c>
       <c r="H41">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="I41">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="J41">
-        <v>2015</v>
+        <v>2007</v>
+      </c>
+      <c r="M41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" t="s">
-        <v>21</v>
-      </c>
       <c r="C42" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="5">
-        <v>38798</v>
-      </c>
-      <c r="F42" s="5">
-        <v>38882</v>
-      </c>
-      <c r="G42" s="5">
-        <v>39083</v>
-      </c>
-      <c r="H42">
-        <v>2006</v>
-      </c>
-      <c r="I42">
-        <v>2006</v>
-      </c>
-      <c r="J42">
-        <v>2007</v>
-      </c>
-      <c r="M42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="5">
+        <v>44946</v>
+      </c>
+      <c r="F43" s="5">
+        <v>45057</v>
+      </c>
+      <c r="G43" s="5">
+        <v>45292</v>
+      </c>
+      <c r="H43" s="12">
+        <v>2023</v>
+      </c>
+      <c r="I43" s="12">
+        <v>2023</v>
+      </c>
+      <c r="J43" s="12">
+        <v>2024</v>
+      </c>
+      <c r="M43" t="s">
         <v>23</v>
       </c>
-      <c r="N42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="9" t="s">
+      <c r="N43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
         <v>35</v>
       </c>
-      <c r="C44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="5">
-        <v>44946</v>
-      </c>
-      <c r="F44" s="5">
-        <v>45057</v>
-      </c>
-      <c r="G44" s="5">
-        <v>45292</v>
-      </c>
-      <c r="H44" s="12">
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="5">
+        <v>40262</v>
+      </c>
+      <c r="G45" s="5">
+        <v>40544</v>
+      </c>
+      <c r="I45">
+        <v>2010</v>
+      </c>
+      <c r="J45">
+        <v>2011</v>
+      </c>
+      <c r="K45" t="s">
+        <v>102</v>
+      </c>
+      <c r="L45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="5">
+        <v>44712</v>
+      </c>
+      <c r="G46" s="5">
+        <v>44927</v>
+      </c>
+      <c r="I46">
+        <v>2022</v>
+      </c>
+      <c r="J46">
         <v>2023</v>
       </c>
-      <c r="I44" s="12">
-        <v>2023</v>
-      </c>
-      <c r="J44" s="12">
-        <v>2024</v>
-      </c>
-      <c r="M44" t="s">
-        <v>23</v>
-      </c>
-      <c r="N44" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="9" t="s">
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="5">
-        <v>40262</v>
-      </c>
-      <c r="G46" s="5">
-        <v>40544</v>
-      </c>
-      <c r="I46">
-        <v>2010</v>
-      </c>
-      <c r="J46">
-        <v>2011</v>
-      </c>
-      <c r="K46" t="s">
-        <v>102</v>
-      </c>
-      <c r="L46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>14</v>
       </c>
-      <c r="C47" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="5">
-        <v>44712</v>
-      </c>
-      <c r="G47" s="5">
-        <v>44927</v>
-      </c>
-      <c r="I47">
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="5">
+        <v>44249</v>
+      </c>
+      <c r="F49" s="5">
+        <v>44295</v>
+      </c>
+      <c r="G49" s="5">
+        <v>44562</v>
+      </c>
+      <c r="H49">
+        <v>2021</v>
+      </c>
+      <c r="I49">
+        <v>2021</v>
+      </c>
+      <c r="J49">
         <v>2022</v>
-      </c>
-      <c r="J47">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="5">
-        <v>44249</v>
+        <v>37796</v>
       </c>
       <c r="F50" s="5">
-        <v>44295</v>
+        <v>37833</v>
       </c>
       <c r="G50" s="5">
-        <v>44562</v>
+        <v>38718</v>
       </c>
       <c r="H50">
-        <v>2021</v>
+        <v>2003</v>
       </c>
       <c r="I50">
-        <v>2021</v>
+        <v>2003</v>
       </c>
       <c r="J50">
-        <v>2022</v>
+        <v>2006</v>
+      </c>
+      <c r="M50" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>21</v>
-      </c>
       <c r="C51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="5">
-        <v>37796</v>
-      </c>
-      <c r="F51" s="5">
-        <v>37833</v>
-      </c>
-      <c r="G51" s="5">
-        <v>38718</v>
-      </c>
-      <c r="H51">
-        <v>2003</v>
-      </c>
-      <c r="I51">
-        <v>2003</v>
-      </c>
-      <c r="J51">
-        <v>2006</v>
-      </c>
-      <c r="M51" t="s">
-        <v>23</v>
-      </c>
-      <c r="N51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D51" s="9" t="s">
         <v>69</v>
       </c>
     </row>
